--- a/StructureDefinition-profile-Library.xlsx
+++ b/StructureDefinition-profile-Library.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="354">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7217676-06:00</t>
+    <t>2026-02-09T22:05:43.1798201-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,38 +419,87 @@
     <t>Library.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Library.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Library.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Library.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `Library.versionAlgorithm[x]` is will have a context of Library based on following the parent source element upwards and mapping to `Library`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Library.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Library.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Library.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `Library.copyrightLabel` is will have a context of Library based on following the parent source element upwards and mapping to `Library`.</t>
+  </si>
+  <si>
+    <t>Library.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Library.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -1371,7 +1420,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN41"/>
+  <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1380,9 +1429,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.58984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.14453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1390,7 +1439,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2346,7 +2395,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2365,17 +2414,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2412,16 +2459,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2439,7 +2484,7 @@
         <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2456,43 +2501,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2540,7 +2585,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2549,13 +2594,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -2569,12 +2614,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2592,23 +2639,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2656,28 +2701,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2692,7 +2737,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2705,13 +2750,13 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>153</v>
@@ -2772,7 +2817,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2784,27 +2829,27 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2827,18 +2872,20 @@
         <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2886,7 +2933,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2901,13 +2948,13 @@
         <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -2915,10 +2962,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2929,7 +2976,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -2941,19 +2988,19 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3002,39 +3049,39 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3057,16 +3104,16 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3116,7 +3163,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3131,13 +3178,13 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3145,10 +3192,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3168,19 +3215,23 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3228,7 +3279,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3237,13 +3288,13 @@
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3257,10 +3308,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3268,7 +3319,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3277,22 +3328,22 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3318,34 +3369,34 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
@@ -3357,13 +3408,13 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3371,10 +3422,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3394,23 +3445,19 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="O18" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3458,7 +3505,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3473,13 +3520,13 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3487,10 +3534,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3507,21 +3554,23 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3546,13 +3595,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3570,7 +3619,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3585,13 +3634,13 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3599,10 +3648,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3622,25 +3671,27 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q20" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3660,13 +3711,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3684,7 +3735,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3699,13 +3750,13 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3713,18 +3764,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
@@ -3739,17 +3790,15 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3774,13 +3823,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3798,10 +3847,10 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>86</v>
@@ -3816,10 +3865,10 @@
         <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3827,10 +3876,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3850,10 +3899,10 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>227</v>
@@ -3861,42 +3910,40 @@
       <c r="M22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="O22" t="s" s="2">
+      <c r="R22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="P22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3914,7 +3961,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3929,13 +3976,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -3943,21 +3990,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -3969,16 +4016,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4028,13 +4075,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4043,13 +4090,13 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4083,18 +4130,20 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4163,7 +4212,7 @@
         <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4171,10 +4220,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4197,20 +4246,18 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O25" t="s" s="2">
         <v>253</v>
       </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4258,7 +4305,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4273,10 +4320,10 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4287,10 +4334,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4301,7 +4348,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4313,16 +4360,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4348,13 +4395,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4372,13 +4419,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4387,10 +4434,10 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4401,10 +4448,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4415,7 +4462,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4424,21 +4471,23 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4486,13 +4535,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4501,24 +4550,24 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4529,7 +4578,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4538,18 +4587,20 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4574,13 +4625,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4598,13 +4649,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4613,10 +4664,10 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4627,14 +4678,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4653,18 +4704,18 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4712,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4727,24 +4778,24 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4767,17 +4818,15 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4826,7 +4875,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4841,28 +4890,28 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4881,19 +4930,17 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4942,7 +4989,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4957,24 +5004,24 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4994,23 +5041,21 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O32" t="s" s="2">
         <v>297</v>
       </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5058,7 +5103,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5073,24 +5118,24 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>165</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5101,7 +5146,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5113,17 +5158,19 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5148,13 +5195,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5172,13 +5219,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5187,24 +5234,24 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5215,7 +5262,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5224,19 +5271,23 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5284,13 +5335,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5299,24 +5350,24 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>309</v>
+        <v>180</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5339,16 +5390,18 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5372,13 +5425,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5396,7 +5449,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5411,7 +5464,7 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5425,10 +5478,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5451,13 +5504,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5508,7 +5561,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5523,7 +5576,7 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5537,10 +5590,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5563,13 +5616,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5620,7 +5673,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5635,7 +5688,7 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5649,10 +5702,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5675,20 +5728,16 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5736,7 +5785,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5751,7 +5800,7 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -5765,10 +5814,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5791,13 +5840,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5848,7 +5897,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5863,7 +5912,7 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -5877,10 +5926,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5903,16 +5952,20 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -5960,7 +6013,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5975,7 +6028,7 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>165</v>
+        <v>341</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -5989,10 +6042,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6012,16 +6065,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6072,7 +6125,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6087,7 +6140,7 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6096,6 +6149,230 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Library.xlsx
+++ b/StructureDefinition-profile-Library.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1798201-06:00</t>
+    <t>2026-02-17T14:42:26.8351533-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `Library.versionAlgorithm[x]` is will have a context of Library based on following the parent source element upwards and mapping to `Library`.</t>
+    <t>Element `Library.versionAlgorithm[x]` has a context of Library based on following the parent source element upwards and mapping to `Library`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -482,7 +482,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `Library.copyrightLabel` is will have a context of Library based on following the parent source element upwards and mapping to `Library`.</t>
+    <t>Element `Library.copyrightLabel` has a context of Library based on following the parent source element upwards and mapping to `Library`.</t>
   </si>
   <si>
     <t>Library.modifierExtension</t>

--- a/StructureDefinition-profile-Library.xlsx
+++ b/StructureDefinition-profile-Library.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="353">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8351533-06:00</t>
+    <t>2026-02-20T11:59:20.8593942-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Library|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Library</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,13 +443,33 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Library.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Library.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Library.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `Library.copyrightLabel` has a context of Library based on following the parent source element upwards and mapping to `Library`.</t>
+  </si>
+  <si>
     <t>Library.extension:versionAlgorithm</t>
   </si>
   <si>
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Library.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
@@ -459,30 +479,8 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `Library.versionAlgorithm[x]` has a context of Library based on following the parent source element upwards and mapping to `Library`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Library.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Library.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Library.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `Library.copyrightLabel` has a context of Library based on following the parent source element upwards and mapping to `Library`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Library.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `Library.versionAlgorithm[x]` has a context of Library based on following the parent source element upwards and mapping to `Library`.</t>
   </si>
   <si>
     <t>Library.modifierExtension</t>
@@ -1439,7 +1437,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="30.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2594,7 +2592,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -2614,13 +2612,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
@@ -2642,16 +2640,16 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2710,7 +2708,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>137</v>
@@ -2730,14 +2728,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2759,16 +2757,16 @@
         <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2817,7 +2815,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2846,10 +2844,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2875,16 +2873,16 @@
         <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2933,7 +2931,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2948,13 +2946,13 @@
         <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -2962,10 +2960,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2988,19 +2986,19 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3049,7 +3047,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3064,24 +3062,24 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3104,16 +3102,16 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3163,7 +3161,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3178,13 +3176,13 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3192,10 +3190,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3218,19 +3216,19 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3279,7 +3277,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3288,7 +3286,7 @@
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>98</v>
@@ -3308,10 +3306,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3334,16 +3332,16 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3393,7 +3391,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3408,10 +3406,10 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3422,10 +3420,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3448,13 +3446,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3505,7 +3503,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3534,10 +3532,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3563,13 +3561,13 @@
         <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3595,14 +3593,14 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3619,7 +3617,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3634,13 +3632,13 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3648,10 +3646,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3674,19 +3672,19 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3735,7 +3733,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3750,13 +3748,13 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3764,10 +3762,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3790,13 +3788,13 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3823,14 +3821,14 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3847,7 +3845,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3862,13 +3860,13 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3876,10 +3874,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3902,13 +3900,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3916,35 +3914,35 @@
         <v>77</v>
       </c>
       <c r="Q22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3961,7 +3959,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3990,14 +3988,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4016,16 +4014,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4075,7 +4073,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4090,13 +4088,13 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4104,10 +4102,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4130,19 +4128,19 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4191,7 +4189,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4206,13 +4204,13 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4220,10 +4218,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4246,16 +4244,16 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4305,7 +4303,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4320,10 +4318,10 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4334,10 +4332,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4360,16 +4358,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4419,7 +4417,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4434,10 +4432,10 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4448,10 +4446,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4474,19 +4472,19 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4535,7 +4533,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4550,10 +4548,10 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4564,10 +4562,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4590,16 +4588,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4625,14 +4623,14 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4649,7 +4647,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4664,10 +4662,10 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4678,10 +4676,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4704,16 +4702,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4763,7 +4761,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4778,24 +4776,24 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM29" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AN29" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4818,13 +4816,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4875,7 +4873,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4890,7 +4888,7 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -4904,14 +4902,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4930,17 +4928,17 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4989,7 +4987,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5004,24 +5002,24 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5044,16 +5042,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5103,7 +5101,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5118,24 +5116,24 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5158,19 +5156,19 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5219,7 +5217,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5234,24 +5232,24 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5274,19 +5272,19 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5335,7 +5333,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5350,24 +5348,24 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5390,17 +5388,17 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5425,14 +5423,14 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5449,7 +5447,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5464,7 +5462,7 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5478,10 +5476,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5504,13 +5502,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5561,7 +5559,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5576,7 +5574,7 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5590,10 +5588,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5616,13 +5614,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5673,7 +5671,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5702,10 +5700,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5728,13 +5726,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5785,7 +5783,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5800,7 +5798,7 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -5814,10 +5812,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5840,13 +5838,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5897,7 +5895,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5912,7 +5910,7 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -5926,10 +5924,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5952,19 +5950,19 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6013,7 +6011,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6028,7 +6026,7 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6042,10 +6040,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6068,13 +6066,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6125,7 +6123,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6140,7 +6138,7 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6154,10 +6152,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6180,13 +6178,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6237,7 +6235,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6252,7 +6250,7 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6266,10 +6264,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6292,13 +6290,13 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6349,7 +6347,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6364,7 +6362,7 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-profile-Library.xlsx
+++ b/StructureDefinition-profile-Library.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="339">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8593942-06:00</t>
+    <t>2026-02-21T13:36:54.2621355-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Library</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Library|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -419,21 +419,21 @@
     <t>Library.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -443,51 +443,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Library.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Library.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Library.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `Library.copyrightLabel` has a context of Library based on following the parent source element upwards and mapping to `Library`.</t>
-  </si>
-  <si>
-    <t>Library.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Library.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Library.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `Library.versionAlgorithm[x]` has a context of Library based on following the parent source element upwards and mapping to `Library`.</t>
-  </si>
-  <si>
     <t>Library.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -495,9 +451,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -1418,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN43"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1427,9 +1380,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.14453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1437,7 +1390,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="30.6484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="20.23828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2393,7 +2346,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2412,15 +2365,17 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2457,14 +2412,16 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2482,7 +2439,7 @@
         <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2499,43 +2456,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2583,7 +2540,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2598,7 +2555,7 @@
         <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -2612,14 +2569,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2637,21 +2592,23 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2699,28 +2656,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2728,14 +2685,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2748,25 +2705,25 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2815,7 +2772,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2827,27 +2784,27 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2870,20 +2827,18 @@
         <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2931,7 +2886,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2946,13 +2901,13 @@
         <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -2960,10 +2915,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2974,7 +2929,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -2986,19 +2941,19 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3047,31 +3002,31 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -3102,16 +3057,16 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3176,13 +3131,13 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3190,10 +3145,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3213,23 +3168,19 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3277,7 +3228,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3286,13 +3237,13 @@
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3306,10 +3257,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3317,7 +3268,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3326,22 +3277,22 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3367,13 +3318,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3391,10 +3342,10 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
@@ -3406,13 +3357,13 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3420,10 +3371,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3443,10 +3394,10 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>195</v>
@@ -3454,8 +3405,12 @@
       <c r="M18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3503,7 +3458,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3518,13 +3473,13 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3532,10 +3487,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3552,23 +3507,21 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3593,31 +3546,31 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3632,13 +3585,13 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3646,10 +3599,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3669,71 +3622,69 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3748,13 +3699,13 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3762,18 +3713,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
@@ -3788,15 +3739,17 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3821,13 +3774,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3845,10 +3798,10 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>86</v>
@@ -3860,13 +3813,13 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3874,10 +3827,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3897,69 +3850,71 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3974,13 +3929,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -3988,21 +3943,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4014,16 +3969,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4073,13 +4028,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4088,13 +4043,13 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4102,10 +4057,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4128,20 +4083,18 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4189,7 +4142,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4204,13 +4157,13 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4255,7 +4208,9 @@
       <c r="N25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4318,7 +4273,7 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>254</v>
@@ -4346,7 +4301,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4358,16 +4313,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4393,13 +4348,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4423,7 +4378,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4432,7 +4387,7 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>261</v>
@@ -4460,7 +4415,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4469,23 +4424,21 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4539,7 +4492,7 @@
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4548,16 +4501,16 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM27" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28">
@@ -4576,7 +4529,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4585,10 +4538,10 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>270</v>
@@ -4596,9 +4549,7 @@
       <c r="M28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4623,13 +4574,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4653,7 +4604,7 @@
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4662,10 +4613,10 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4676,14 +4627,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4702,18 +4653,18 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4761,7 +4712,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4776,24 +4727,24 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4816,15 +4767,17 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4873,7 +4826,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4888,28 +4841,28 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4928,17 +4881,19 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4987,7 +4942,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5002,7 +4957,7 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>291</v>
@@ -5011,7 +4966,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
@@ -5039,7 +4994,7 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>293</v>
@@ -5053,7 +5008,9 @@
       <c r="N32" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="O32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5116,7 +5073,7 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>297</v>
+        <v>165</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>298</v>
@@ -5125,7 +5082,7 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33">
@@ -5144,7 +5101,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5156,7 +5113,7 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>300</v>
@@ -5164,11 +5121,9 @@
       <c r="M33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5193,13 +5148,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5223,7 +5178,7 @@
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5232,16 +5187,16 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>304</v>
+        <v>165</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5260,7 +5215,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5269,23 +5224,19 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>311</v>
-      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5339,7 +5290,7 @@
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5348,24 +5299,24 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5388,18 +5339,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5423,13 +5372,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5447,7 +5396,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5462,7 +5411,7 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5476,10 +5425,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5502,13 +5451,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5559,7 +5508,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5574,7 +5523,7 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5588,10 +5537,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5614,13 +5563,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5671,7 +5620,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5686,7 +5635,7 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5700,10 +5649,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5726,16 +5675,20 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>249</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5783,7 +5736,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5798,7 +5751,7 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -5812,10 +5765,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5838,13 +5791,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5895,7 +5848,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5910,7 +5863,7 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -5924,10 +5877,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5950,20 +5903,16 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6011,7 +5960,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6026,7 +5975,7 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6040,10 +5989,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6063,16 +6012,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6123,7 +6072,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6138,7 +6087,7 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6147,230 +6096,6 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN43" t="s" s="2">
         <v>77</v>
       </c>
     </row>
